--- a/datapackage_pipelines_budgetkey/pipelines/activities/social_services/קטלוג רווחה למערכת ההזנה 18.5.21.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/activities/social_services/קטלוג רווחה למערכת ההזנה 18.5.21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jdcil-my.sharepoint.com/personal/shiratz_jdc_org/Documents/Desktop/ג'וינט/ספר השירותים/ספר השירותים/משרדים/רווחה/קבצים סופיים/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{2BC4B2C4-66E6-4C0A-9E6B-2FE1DB07432F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA381EC8-D406-4D07-A1E6-D3368D503CA9}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{2BC4B2C4-66E6-4C0A-9E6B-2FE1DB07432F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FFAED6B3-1C8D-4885-AA24-31FF0306CE9B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="559">
   <si>
     <t>מוגבלויות</t>
   </si>
@@ -1736,6 +1736,12 @@
   </si>
   <si>
     <t>אבחון|הליכים בבית משפט, חקירה, עדות וגיבוש תסקיר|פעילות קהילתית</t>
+  </si>
+  <si>
+    <t>דרי רחוב</t>
+  </si>
+  <si>
+    <t>השירות למען הילד</t>
   </si>
 </sst>
 </file>
@@ -2090,9 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -2140,339 +2144,330 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62.5">
+    <row r="2" spans="1:10" ht="112.5">
       <c r="A2" s="1">
-        <v>608</v>
+        <v>480</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>430</v>
+        <v>514</v>
+      </c>
+      <c r="G2" t="s">
+        <v>515</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="62.5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="50">
       <c r="A3" s="1">
-        <v>610</v>
+        <v>487</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>433</v>
+        <v>514</v>
+      </c>
+      <c r="G3" t="s">
+        <v>515</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="50">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="62.5">
       <c r="A4" s="1">
-        <v>614</v>
+        <v>531</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>442</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>430</v>
+        <v>514</v>
+      </c>
+      <c r="G4" t="s">
+        <v>516</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="162.5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75">
       <c r="A5" s="1">
-        <v>615</v>
+        <v>533</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="87.5">
+      <c r="A6" s="1">
+        <v>540</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="100">
+      <c r="A7" s="1">
+        <v>549</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G7" t="s">
+        <v>516</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50">
+      <c r="A8" s="1">
+        <v>550</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" t="s">
+        <v>516</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="62.5">
+      <c r="A9" s="1">
+        <v>552</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>514</v>
+      </c>
+      <c r="G9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="62.5">
+      <c r="A10" s="1">
         <v>555</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>503</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="37.5">
-      <c r="A6" s="1">
-        <v>634</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>504</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="37.5">
-      <c r="A7" s="1">
-        <v>640</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>504</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="62.5">
-      <c r="A8" s="1">
-        <v>83</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>503</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="37.5">
-      <c r="A9" s="1">
-        <v>175</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>503</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="50">
-      <c r="A10" s="1">
-        <v>176</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>341</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>343</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>432</v>
+        <v>514</v>
+      </c>
+      <c r="G10" t="s">
+        <v>516</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="62.5">
       <c r="A11" s="1">
-        <v>201</v>
+        <v>789</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>503</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>389</v>
+        <v>514</v>
+      </c>
+      <c r="G11" t="s">
+        <v>516</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="37.5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="62.5">
       <c r="A12" s="1">
-        <v>265</v>
+        <v>790</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>421</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>422</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>368</v>
+        <v>174</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>503</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>432</v>
+        <v>514</v>
+      </c>
+      <c r="G12" t="s">
+        <v>516</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="125">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="62.5">
       <c r="A13" s="1">
-        <v>266</v>
+        <v>608</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>370</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>371</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>503</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="62.5">
       <c r="A14" s="1">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>503</v>
@@ -2480,77 +2475,77 @@
       <c r="H14" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="87.5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50">
       <c r="A15" s="1">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>373</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>503</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="37.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="162.5">
       <c r="A16" s="1">
-        <v>908</v>
+        <v>615</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>352</v>
+        <v>555</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>503</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="62.5">
       <c r="A17" s="1">
-        <v>909</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -2558,428 +2553,410 @@
       <c r="F17" t="s">
         <v>503</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="62.5">
+        <v>432</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="37.5">
       <c r="A18" s="1">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>360</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>361</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
         <v>503</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="125">
-      <c r="A19" s="5">
-        <v>90</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50">
+      <c r="A19" s="1">
+        <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>503</v>
       </c>
-      <c r="G19" t="s">
-        <v>505</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>393</v>
+      <c r="I19" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="50">
-      <c r="A20" s="5">
-        <v>671</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="62.5">
+      <c r="A20" s="1">
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
         <v>503</v>
       </c>
-      <c r="G20" t="s">
-        <v>506</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="37.5">
-      <c r="A21" s="5">
-        <v>1</v>
+      <c r="A21" s="1">
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>421</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>507</v>
-      </c>
-      <c r="G21" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="5">
-        <v>3</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="125">
+      <c r="A22" s="1">
+        <v>266</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>507</v>
-      </c>
-      <c r="G22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="25">
-      <c r="A23" s="5">
-        <v>5</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50">
+      <c r="A23" s="1">
+        <v>646</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
-      </c>
-      <c r="G23" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="37.5">
-      <c r="A24" s="5">
-        <v>7</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="87.5">
+      <c r="A24" s="1">
+        <v>649</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>374</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
-      </c>
-      <c r="G24" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="50">
-      <c r="A25" s="5">
-        <v>67</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="37.5">
+      <c r="A25" s="1">
+        <v>908</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>503</v>
       </c>
-      <c r="G25" t="s">
-        <v>509</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>393</v>
+      <c r="I25" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="50">
-      <c r="A26" s="5">
-        <v>6</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>909</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>507</v>
-      </c>
-      <c r="G26" t="s">
-        <v>508</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>458</v>
+        <v>503</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="62.5">
-      <c r="A27" s="5">
-        <v>8</v>
+      <c r="A27" s="1">
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>507</v>
-      </c>
-      <c r="G27" t="s">
-        <v>508</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>393</v>
+        <v>503</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="50">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="125">
       <c r="A28" s="5">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>390</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>391</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>183</v>
+        <v>392</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G28" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="37.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="50">
       <c r="A29" s="5">
-        <v>13</v>
+        <v>671</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>5</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="50">
       <c r="A30" s="5">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G30" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="75">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50">
       <c r="A31" s="5">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="50">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25">
       <c r="A32" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>0</v>
@@ -2993,112 +2970,118 @@
       <c r="H32" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="37.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="50">
       <c r="A33" s="5">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>408</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>452</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50">
       <c r="A34" s="5">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="37.5">
       <c r="A35" s="5">
-        <v>82</v>
+        <v>681</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G35" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="75">
       <c r="A36" s="5">
-        <v>85</v>
+        <v>839</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>0</v>
@@ -3119,18 +3102,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="50">
+    <row r="37" spans="1:10" ht="100">
       <c r="A37" s="5">
-        <v>87</v>
+        <v>904</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>407</v>
+        <v>335</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>0</v>
@@ -3139,62 +3122,62 @@
         <v>503</v>
       </c>
       <c r="G37" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="62.5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="50">
       <c r="A38" s="5">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50">
       <c r="A39" s="5">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>0</v>
@@ -3215,587 +3198,548 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="75">
+    <row r="40" spans="1:10" ht="37.5">
       <c r="A40" s="5">
-        <v>786</v>
+        <v>648</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G40" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="37.5">
       <c r="A41" s="5">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="62.5">
+      <c r="I41" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="50">
       <c r="A42" s="5">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G42" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="I42" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="50">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="75">
       <c r="A43" s="5">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>198</v>
+        <v>428</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G43" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="62.5">
       <c r="A44" s="5">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>416</v>
+        <v>213</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>417</v>
+        <v>214</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="G44" t="s">
+        <v>506</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="50">
-      <c r="A45" s="5">
-        <v>641</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="37.5">
+      <c r="A45" s="1">
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>418</v>
+        <v>199</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>419</v>
+        <v>201</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>507</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>393</v>
+        <v>503</v>
+      </c>
+      <c r="G45" t="s">
+        <v>524</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="37.5">
-      <c r="A46" s="5">
-        <v>681</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="50">
+      <c r="A46" s="1">
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>349</v>
+        <v>203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>420</v>
+        <v>204</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>503</v>
       </c>
       <c r="G46" t="s">
-        <v>505</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>393</v>
+        <v>524</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>5</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="50">
-      <c r="A47" s="5">
-        <v>714</v>
+      <c r="A47" s="1">
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G47" t="s">
-        <v>510</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="50">
+      <c r="A48" s="1">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>503</v>
+      </c>
+      <c r="G48" t="s">
+        <v>512</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="62.5">
+      <c r="A49" s="1">
+        <v>256</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>503</v>
+      </c>
+      <c r="G49" t="s">
+        <v>524</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="50">
+      <c r="A50" s="1">
+        <v>262</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>503</v>
+      </c>
+      <c r="G50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="37.5">
+      <c r="A51" s="1">
+        <v>269</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>503</v>
+      </c>
+      <c r="G51" t="s">
+        <v>524</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="37.5">
+      <c r="A52" s="1">
+        <v>276</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>503</v>
+      </c>
+      <c r="G52" t="s">
+        <v>524</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="62.5">
+      <c r="A53" s="1">
+        <v>283</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>503</v>
+      </c>
+      <c r="G53" t="s">
+        <v>524</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="50">
-      <c r="A48" s="5">
-        <v>835</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>507</v>
-      </c>
-      <c r="G48" t="s">
-        <v>508</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="75">
-      <c r="A49" s="5">
-        <v>839</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>503</v>
-      </c>
-      <c r="G49" t="s">
-        <v>505</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="100">
-      <c r="A50" s="5">
-        <v>862</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>504</v>
-      </c>
-      <c r="G50" t="s">
-        <v>511</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="100">
-      <c r="A51" s="5">
-        <v>904</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>503</v>
-      </c>
-      <c r="G51" t="s">
-        <v>509</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="50">
-      <c r="A52" s="5">
-        <v>86</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>503</v>
-      </c>
-      <c r="G52" t="s">
-        <v>505</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="50">
-      <c r="A53" s="5">
-        <v>147</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>503</v>
-      </c>
-      <c r="G53" t="s">
-        <v>506</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="37.5">
-      <c r="A54" s="5">
-        <v>648</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="112.5">
+      <c r="A54" s="1">
+        <v>479</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>427</v>
+        <v>308</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>503</v>
       </c>
       <c r="G54" t="s">
-        <v>505</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="37.5">
-      <c r="A55" s="5">
-        <v>142</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="62.5">
+      <c r="A55" s="1">
+        <v>481</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>503</v>
       </c>
       <c r="G55" t="s">
-        <v>506</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="50">
-      <c r="A56" s="5">
-        <v>75</v>
+        <v>513</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="62.5">
+      <c r="A56" s="1">
+        <v>483</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>503</v>
       </c>
       <c r="G56" t="s">
-        <v>509</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>431</v>
+        <v>513</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>454</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="75">
-      <c r="A57" s="5">
-        <v>88</v>
+      <c r="A57" s="1">
+        <v>484</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>428</v>
+        <v>310</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>503</v>
       </c>
       <c r="G57" t="s">
-        <v>505</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>393</v>
+        <v>513</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="62.5">
-      <c r="A58" s="5">
-        <v>68</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="187.5">
+      <c r="A58" s="1">
+        <v>486</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>212</v>
+        <v>447</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>214</v>
+        <v>448</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>503</v>
       </c>
       <c r="G58" t="s">
-        <v>506</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>393</v>
+        <v>513</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="37.5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="62.5">
       <c r="A59" s="1">
-        <v>42</v>
+        <v>489</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1</v>
@@ -3804,24 +3748,24 @@
         <v>503</v>
       </c>
       <c r="G59" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="50">
       <c r="A60" s="1">
-        <v>43</v>
+        <v>887</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>1</v>
@@ -3830,27 +3774,27 @@
         <v>503</v>
       </c>
       <c r="G60" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="50">
       <c r="A61" s="1">
-        <v>44</v>
+        <v>890</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>1</v>
@@ -3865,1027 +3809,1093 @@
         <v>431</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="37.5">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="62.5">
       <c r="A62" s="1">
-        <v>47</v>
+        <v>892</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G62" t="s">
-        <v>524</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="37.5">
       <c r="A63" s="1">
-        <v>48</v>
+        <v>896</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G63" t="s">
         <v>524</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="62.5">
       <c r="A64" s="1">
-        <v>49</v>
+        <v>901</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
         <v>524</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="50">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="37.5">
       <c r="A65" s="1">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>503</v>
       </c>
       <c r="G65" t="s">
-        <v>512</v>
+        <v>517</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="37.5">
-      <c r="A66" s="1">
-        <v>182</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="137.5">
+      <c r="A66" s="5">
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>435</v>
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>503</v>
+      </c>
+      <c r="G66" t="s">
+        <v>518</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="50">
-      <c r="A67" s="1">
-        <v>184</v>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="112.5">
+      <c r="A67" s="5">
+        <v>150</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G67" t="s">
+        <v>518</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>435</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="50">
-      <c r="A68" s="1">
-        <v>185</v>
+      <c r="A68" s="5">
+        <v>156</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" t="s">
+        <v>518</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="37.5">
-      <c r="A69" s="1">
-        <v>186</v>
+        <v>433</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="100">
+      <c r="A69" s="5">
+        <v>178</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G69" t="s">
+        <v>517</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="37.5">
-      <c r="A70" s="1">
-        <v>209</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="112.5">
+      <c r="A70" s="5">
+        <v>179</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G70" t="s">
-        <v>525</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="62.5">
-      <c r="A71" s="1">
-        <v>256</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="25">
+      <c r="A71" s="5">
+        <v>202</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>503</v>
       </c>
       <c r="G71" t="s">
-        <v>524</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="50">
-      <c r="A72" s="1">
-        <v>262</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="37.5">
+      <c r="A72" s="5">
+        <v>203</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>503</v>
       </c>
       <c r="G72" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="37.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="162.5">
       <c r="A73" s="1">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>503</v>
       </c>
       <c r="G73" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="37.5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="87.5">
       <c r="A74" s="1">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>503</v>
       </c>
       <c r="G74" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="37.5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="50">
       <c r="A75" s="1">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>326</v>
+        <v>146</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>328</v>
+        <v>148</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G75" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="50">
       <c r="A76" s="1">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
+        <v>503</v>
+      </c>
+      <c r="G76" t="s">
+        <v>522</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="50">
+      <c r="A77" s="1">
+        <v>341</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" t="s">
+        <v>522</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="75">
+      <c r="A78" s="1">
+        <v>347</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>503</v>
+      </c>
+      <c r="G78" t="s">
+        <v>523</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="62.5">
+      <c r="A79" s="1">
+        <v>348</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>503</v>
+      </c>
+      <c r="G79" t="s">
+        <v>523</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="50">
+      <c r="A80" s="1">
+        <v>349</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>503</v>
+      </c>
+      <c r="G80" t="s">
+        <v>523</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="37.5">
+      <c r="A81" s="1">
+        <v>351</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>503</v>
+      </c>
+      <c r="G81" t="s">
+        <v>523</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="50">
+      <c r="A82" s="1">
+        <v>870</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>503</v>
+      </c>
+      <c r="G82" t="s">
+        <v>517</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="87.5">
+      <c r="A83" s="1">
+        <v>885</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>503</v>
+      </c>
+      <c r="G83" t="s">
+        <v>518</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="62.5">
+      <c r="A84" s="5">
+        <v>220</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>520</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="75">
+      <c r="A85" s="5">
+        <v>230</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>520</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="75">
+      <c r="A86" s="1">
+        <v>232</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>520</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="87.5">
+      <c r="A87" s="1">
+        <v>244</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>520</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="37.5">
+      <c r="A88" s="1">
+        <v>634</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
         <v>504</v>
       </c>
-      <c r="G76" t="s">
-        <v>524</v>
-      </c>
-      <c r="I76" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="62.5">
-      <c r="A77" s="1">
-        <v>283</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>503</v>
-      </c>
-      <c r="G77" t="s">
-        <v>524</v>
-      </c>
-      <c r="I77" s="1" t="s">
+    </row>
+    <row r="89" spans="1:10" ht="37.5">
+      <c r="A89" s="1">
+        <v>640</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>504</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="112.5">
-      <c r="A78" s="1">
-        <v>479</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>503</v>
-      </c>
-      <c r="G78" t="s">
-        <v>513</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="112.5">
-      <c r="A79" s="1">
-        <v>480</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>514</v>
-      </c>
-      <c r="G79" t="s">
-        <v>515</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="62.5">
-      <c r="A80" s="1">
+    </row>
+    <row r="90" spans="1:10" ht="50">
+      <c r="A90" s="5">
+        <v>82</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>504</v>
+      </c>
+      <c r="G90" t="s">
+        <v>510</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="62.5">
+      <c r="A91" s="5">
+        <v>143</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>504</v>
+      </c>
+      <c r="G91" t="s">
+        <v>510</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="75">
+      <c r="A92" s="5">
+        <v>786</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>504</v>
+      </c>
+      <c r="G92" t="s">
+        <v>510</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>503</v>
-      </c>
-      <c r="G80" t="s">
-        <v>513</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="62.5">
-      <c r="A81" s="1">
-        <v>483</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>503</v>
-      </c>
-      <c r="G81" t="s">
-        <v>513</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="75">
-      <c r="A82" s="1">
-        <v>484</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>503</v>
-      </c>
-      <c r="G82" t="s">
-        <v>513</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="187.5">
-      <c r="A83" s="1">
-        <v>486</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>503</v>
-      </c>
-      <c r="G83" t="s">
-        <v>513</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="50">
-      <c r="A84" s="1">
-        <v>487</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>514</v>
-      </c>
-      <c r="G84" t="s">
-        <v>515</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="62.5">
-      <c r="A85" s="1">
-        <v>489</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>503</v>
-      </c>
-      <c r="G85" t="s">
-        <v>513</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="50">
-      <c r="A86" s="1">
-        <v>494</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
+    </row>
+    <row r="93" spans="1:10" ht="50">
+      <c r="A93" s="5">
+        <v>714</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
         <v>504</v>
       </c>
-      <c r="G86" t="s">
-        <v>260</v>
-      </c>
-      <c r="I86" s="1" t="s">
+      <c r="G93" t="s">
+        <v>510</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="62.5">
-      <c r="A87" s="1">
-        <v>500</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="J93" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="100">
+      <c r="A94" s="5">
+        <v>862</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
         <v>504</v>
       </c>
-      <c r="G87" t="s">
-        <v>260</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="62.5">
-      <c r="A88" s="1">
-        <v>531</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>514</v>
-      </c>
-      <c r="G88" t="s">
-        <v>516</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="75">
-      <c r="A89" s="1">
-        <v>533</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>514</v>
-      </c>
-      <c r="G89" t="s">
-        <v>516</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="87.5">
-      <c r="A90" s="1">
-        <v>540</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>514</v>
-      </c>
-      <c r="G90" t="s">
-        <v>516</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="100">
-      <c r="A91" s="1">
-        <v>549</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>514</v>
-      </c>
-      <c r="G91" t="s">
-        <v>516</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="50">
-      <c r="A92" s="1">
-        <v>550</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>514</v>
-      </c>
-      <c r="G92" t="s">
-        <v>516</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="62.5">
-      <c r="A93" s="1">
-        <v>552</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>514</v>
-      </c>
-      <c r="G93" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="62.5">
-      <c r="A94" s="1">
-        <v>555</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>514</v>
-      </c>
       <c r="G94" t="s">
-        <v>516</v>
+        <v>511</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="62.5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="37.5">
       <c r="A95" s="1">
-        <v>789</v>
+        <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G95" t="s">
-        <v>516</v>
+        <v>524</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="62.5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="37.5">
       <c r="A96" s="1">
-        <v>790</v>
+        <v>48</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G96" t="s">
-        <v>516</v>
+        <v>524</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="50">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="62.5">
       <c r="A97" s="1">
-        <v>887</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="50">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="37.5">
       <c r="A98" s="1">
-        <v>890</v>
+        <v>209</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G98" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="62.5">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="37.5">
       <c r="A99" s="1">
-        <v>892</v>
+        <v>279</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G99" t="s">
-        <v>513</v>
+        <v>524</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="62.5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="50">
       <c r="A100" s="1">
-        <v>895</v>
+        <v>280</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1</v>
@@ -4894,56 +4904,56 @@
         <v>504</v>
       </c>
       <c r="G100" t="s">
-        <v>260</v>
+        <v>524</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>435</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="37.5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="50">
       <c r="A101" s="1">
-        <v>896</v>
+        <v>494</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G101" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="62.5">
       <c r="A102" s="1">
-        <v>899</v>
+        <v>500</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>1</v>
@@ -4952,24 +4962,24 @@
         <v>504</v>
       </c>
       <c r="G102" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="50">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="62.5">
       <c r="A103" s="1">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>1</v>
@@ -4978,56 +4988,53 @@
         <v>504</v>
       </c>
       <c r="G103" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>435</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="62.5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="50">
       <c r="A104" s="1">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G104" t="s">
         <v>524</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="J104" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="37.5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="50">
       <c r="A105" s="1">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>1</v>
@@ -5042,21 +5049,21 @@
         <v>435</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="62.5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="37.5">
       <c r="A106" s="1">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>1</v>
@@ -5074,808 +5081,832 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="87.5">
+    <row r="107" spans="1:10" ht="62.5">
       <c r="A107" s="1">
-        <v>246</v>
+        <v>907</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>389</v>
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>504</v>
+      </c>
+      <c r="G107" t="s">
+        <v>524</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="37.5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="62.5">
       <c r="A108" s="1">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G108" t="s">
-        <v>517</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>393</v>
+        <v>521</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="37.5">
-      <c r="A109" s="5">
-        <v>126</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="50">
+      <c r="A109" s="1">
+        <v>329</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F109" t="s">
+        <v>504</v>
+      </c>
+      <c r="G109" t="s">
+        <v>521</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="J109" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="137.5">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="37.5">
       <c r="A110" s="5">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G110" t="s">
-        <v>518</v>
+        <v>508</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="112.5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="75">
       <c r="A111" s="5">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G111" t="s">
-        <v>518</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>435</v>
+        <v>508</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="50">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="25">
       <c r="A112" s="5">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G112" t="s">
-        <v>518</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>433</v>
+        <v>508</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="100">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="37.5">
       <c r="A113" s="5">
+        <v>7</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>507</v>
+      </c>
+      <c r="G113" t="s">
+        <v>508</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="50">
+      <c r="A114" s="5">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>507</v>
+      </c>
+      <c r="G114" t="s">
+        <v>508</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="62.5">
+      <c r="A115" s="5">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s">
-        <v>503</v>
-      </c>
-      <c r="G113" t="s">
-        <v>517</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="112.5">
-      <c r="A114" s="5">
+      <c r="C115" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F114" t="s">
-        <v>503</v>
-      </c>
-      <c r="G114" t="s">
-        <v>517</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="25">
-      <c r="A115" s="5">
-        <v>202</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G115" t="s">
-        <v>519</v>
+        <v>508</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="37.5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="50">
       <c r="A116" s="5">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G116" t="s">
-        <v>517</v>
+        <v>508</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="62.5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="37.5">
       <c r="A117" s="5">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>520</v>
+        <v>507</v>
+      </c>
+      <c r="G117" t="s">
+        <v>508</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="50">
       <c r="A118" s="5">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>98</v>
+        <v>396</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>520</v>
+        <v>507</v>
+      </c>
+      <c r="G118" t="s">
+        <v>508</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="75">
-      <c r="A119" s="1">
-        <v>232</v>
+      <c r="A119" s="5">
+        <v>28</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>520</v>
+        <v>507</v>
+      </c>
+      <c r="G119" t="s">
+        <v>508</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="125">
-      <c r="A120" s="1">
-        <v>241</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="37.5">
+      <c r="A120" s="5">
+        <v>14</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>141</v>
+        <v>399</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>435</v>
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>507</v>
+      </c>
+      <c r="G120" t="s">
+        <v>508</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="62.5">
-      <c r="A121" s="1">
-        <v>243</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="50">
+      <c r="A121" s="5">
+        <v>25</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G121" t="s">
-        <v>521</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>435</v>
+        <v>508</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="87.5">
-      <c r="A122" s="1">
-        <v>244</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="75">
+      <c r="A122" s="5">
+        <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>507</v>
+      </c>
+      <c r="G122" t="s">
+        <v>508</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="62.5">
+      <c r="A123" s="5">
+        <v>15</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>507</v>
+      </c>
+      <c r="G123" t="s">
+        <v>508</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="50">
+      <c r="A124" s="5">
+        <v>21</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>507</v>
+      </c>
+      <c r="G124" t="s">
+        <v>508</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="50">
+      <c r="A125" s="5">
         <v>101</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s">
-        <v>520</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="162.5">
-      <c r="A123" s="1">
-        <v>245</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F123" t="s">
-        <v>503</v>
-      </c>
-      <c r="G123" t="s">
-        <v>518</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="87.5">
-      <c r="A124" s="1">
-        <v>342</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F124" t="s">
-        <v>503</v>
-      </c>
-      <c r="G124" t="s">
-        <v>522</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="50">
-      <c r="A125" s="1">
-        <v>343</v>
-      </c>
       <c r="B125" s="1" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>147</v>
+        <v>416</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>503</v>
-      </c>
-      <c r="G125" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="50">
-      <c r="A126" s="1">
-        <v>329</v>
+      <c r="A126" s="5">
+        <v>641</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>137</v>
+        <v>418</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>504</v>
-      </c>
-      <c r="G126" t="s">
-        <v>521</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>435</v>
+        <v>507</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>551</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="50">
-      <c r="A127" s="1">
-        <v>336</v>
+      <c r="A127" s="5">
+        <v>835</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G127" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="62.5">
+    </row>
+    <row r="128" spans="1:10" ht="37.5">
       <c r="A128" s="1">
-        <v>338</v>
+        <v>182</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>362</v>
+        <v>48</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>364</v>
+        <v>50</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="50">
       <c r="A129" s="1">
-        <v>341</v>
+        <v>184</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>445</v>
+        <v>51</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>446</v>
+        <v>52</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" t="s">
-        <v>503</v>
-      </c>
-      <c r="G129" t="s">
-        <v>522</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>389</v>
+        <v>1</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="75">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="50">
       <c r="A130" s="1">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F130" t="s">
-        <v>503</v>
-      </c>
-      <c r="G130" t="s">
-        <v>523</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="62.5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="37.5">
       <c r="A131" s="1">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s">
-        <v>503</v>
-      </c>
-      <c r="G131" t="s">
-        <v>523</v>
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="50">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="87.5">
       <c r="A132" s="1">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F132" t="s">
-        <v>503</v>
-      </c>
-      <c r="G132" t="s">
-        <v>523</v>
+      <c r="F132" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>433</v>
+        <v>389</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="37.5">
-      <c r="A133" s="1">
-        <v>351</v>
+      <c r="A133" s="5">
+        <v>126</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F133" t="s">
-        <v>503</v>
-      </c>
-      <c r="G133" t="s">
-        <v>523</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>433</v>
+      <c r="F133" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="50">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="125">
       <c r="A134" s="1">
-        <v>662</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="J134" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="50">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="62.5">
       <c r="A135" s="1">
-        <v>870</v>
+        <v>338</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F135" t="s">
-        <v>503</v>
-      </c>
-      <c r="G135" t="s">
-        <v>517</v>
+      <c r="F135" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="87.5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="50">
       <c r="A136" s="1">
-        <v>885</v>
+        <v>662</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F136" t="s">
-        <v>503</v>
-      </c>
-      <c r="G136" t="s">
-        <v>518</v>
+      <c r="F136" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="37.5">
@@ -5894,6 +5925,9 @@
       <c r="E137" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F137" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H137" s="1" t="s">
         <v>389</v>
       </c>
@@ -5920,13 +5954,23 @@
       <c r="E138" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F138" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J138" s="1" t="s">
         <v>538</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:J138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J138" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J138">
+      <sortCondition ref="F37:F138"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J139">
+    <sortCondition descending="1" ref="F37:F139"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
   <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>

--- a/datapackage_pipelines_budgetkey/pipelines/activities/social_services/קטלוג רווחה למערכת ההזנה 18.5.21.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/activities/social_services/קטלוג רווחה למערכת ההזנה 18.5.21.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jdcil-my.sharepoint.com/personal/shiratz_jdc_org/Documents/Desktop/ג'וינט/ספר השירותים/ספר השירותים/משרדים/רווחה/קבצים סופיים/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/activities/social_services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{2BC4B2C4-66E6-4C0A-9E6B-2FE1DB07432F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FFAED6B3-1C8D-4885-AA24-31FF0306CE9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BE237F-FD4C-A142-ACFF-57F94A1B5568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phpl9VFeJ" sheetId="1" r:id="rId1"/>
-    <sheet name="גיליון1" sheetId="2" r:id="rId2"/>
-    <sheet name="גיליון2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phpl9VFeJ!$A$1:$J$138</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"phpl9VFeJ"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="550">
   <si>
     <t>מוגבלויות</t>
   </si>
@@ -670,9 +668,6 @@
     <t>מרכזי קהילה לבוגרים יוצאים בשאלה, לצמצום תחושת בדידות, ומתן מסגרת קהילתית, תרבותית והשכלתית, לצורך שילובם בחברה הישראלית.</t>
   </si>
   <si>
-    <t>תוכנית "משלי"- השלמת השכלה תיכונית לצעירים/ות במכינה קדם אקדמית</t>
-  </si>
-  <si>
     <t>תוכנית להשלמת 12 שנות לימוד לצעירים/ות בוגרי צבא ושירות לאומי/אזרחי, בתמיכת עובד/ת סוציאלי/ת ותגבורים לימודיים, לצורך המשך לימודים או השתלבות בתעסוקה.</t>
   </si>
   <si>
@@ -1196,33 +1191,6 @@
     <t>אבחון והערכה אודות מאפייניו של האדם ושל סביבתו, הערכת תפקודו בתחומי חיים מרכזיים,  והערכת התמיכות הנדרשות  לצורך שילובו והשתתפותו בחברה.בחינת שייכות האדם למינהל מוגבלויות ("שער הכניסה").בניית בסיס לתכנית אישית ומתן שירותים, זאת בהתבסס על ממצאי הערכה, צרכים ורצונות האדם.</t>
   </si>
   <si>
-    <t>שחא</t>
-  </si>
-  <si>
-    <t>תקון</t>
-  </si>
-  <si>
-    <t>שירותים שלא קיימים בספר וכן בקטלוג</t>
-  </si>
-  <si>
-    <t>שירותים בספר 2018</t>
-  </si>
-  <si>
-    <t>סה"כ שירותים</t>
-  </si>
-  <si>
-    <t>שירותים שקיימים בספר ובקטלוג (מפוצלים)</t>
-  </si>
-  <si>
-    <t>כמות</t>
-  </si>
-  <si>
-    <t>שירותים בקטלוג</t>
-  </si>
-  <si>
-    <t>שירותים עם הגדרות מפעיל מרובות</t>
-  </si>
-  <si>
     <t>אוכלוסייה</t>
   </si>
   <si>
@@ -1742,6 +1710,9 @@
   </si>
   <si>
     <t>השירות למען הילד</t>
+  </si>
+  <si>
+    <t>תוכנית "משלי"- השלמת השכלה תיכונית לצעירים/ות במכינה קדם אקדמית (כולל הפעלת תוכנית אוניברסיטאית בסיסית)</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1741,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1778,26 +1749,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1812,8 +1768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,23 +2050,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="5"/>
-    <col min="2" max="2" width="26.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="5"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2126,77 +2082,77 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="112.5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="126">
       <c r="A2" s="1">
         <v>480</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="50">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="56">
       <c r="A3" s="1">
         <v>487</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="62.5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="84">
       <c r="A4" s="1">
         <v>531</v>
       </c>
@@ -2204,7 +2160,7 @@
         <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>168</v>
@@ -2213,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="75">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="84">
       <c r="A5" s="1">
         <v>533</v>
       </c>
@@ -2239,16 +2195,16 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="87.5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="112">
       <c r="A6" s="1">
         <v>540</v>
       </c>
@@ -2265,68 +2221,68 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="100">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="112">
       <c r="A7" s="1">
         <v>549</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="50">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="56">
       <c r="A8" s="1">
         <v>550</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="62.5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="84">
       <c r="A9" s="1">
         <v>552</v>
       </c>
@@ -2343,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="62.5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="70">
       <c r="A10" s="1">
         <v>555</v>
       </c>
@@ -2366,16 +2322,16 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="62.5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="70">
       <c r="A11" s="1">
         <v>789</v>
       </c>
@@ -2392,16 +2348,16 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G11" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="62.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="84">
       <c r="A12" s="1">
         <v>790</v>
       </c>
@@ -2418,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G12" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="62.5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="70">
       <c r="A13" s="1">
         <v>608</v>
       </c>
@@ -2444,16 +2400,16 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="62.5">
+    <row r="14" spans="1:10" ht="70">
       <c r="A14" s="1">
         <v>610</v>
       </c>
@@ -2470,19 +2426,19 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="70">
       <c r="A15" s="1">
         <v>614</v>
       </c>
@@ -2499,16 +2455,16 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="162.5">
+    <row r="16" spans="1:10" ht="182">
       <c r="A16" s="1">
         <v>615</v>
       </c>
@@ -2519,291 +2475,291 @@
         <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="62.5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="70">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="37.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="42">
       <c r="A18" s="1">
         <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="50">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="56">
       <c r="A19" s="1">
         <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="62.5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="70">
       <c r="A20" s="1">
         <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="37.5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="56">
       <c r="A21" s="1">
         <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="125">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="154">
       <c r="A22" s="1">
         <v>266</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="50">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="56">
       <c r="A23" s="1">
         <v>646</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="87.5">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="98">
       <c r="A24" s="1">
         <v>649</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="37.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="56">
       <c r="A25" s="1">
         <v>908</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14">
       <c r="A26" s="1">
         <v>909</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="62.5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="70">
       <c r="A27" s="1">
         <v>139</v>
       </c>
@@ -2820,45 +2776,45 @@
         <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="125">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="140">
       <c r="A28" s="5">
         <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G28" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="50">
+    <row r="29" spans="1:10" ht="56">
       <c r="A29" s="5">
         <v>671</v>
       </c>
@@ -2875,82 +2831,82 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G29" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="50">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="56">
       <c r="A30" s="5">
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G30" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="50">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="56">
       <c r="A31" s="5">
         <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28">
       <c r="A32" s="5">
         <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>36</v>
@@ -2962,30 +2918,30 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G32" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="50">
+    <row r="33" spans="1:10" ht="56">
       <c r="A33" s="5">
         <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>38</v>
@@ -2994,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="50">
+    <row r="34" spans="1:10" ht="56">
       <c r="A34" s="5">
         <v>145</v>
       </c>
@@ -3026,211 +2982,211 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G34" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="37.5">
+    <row r="35" spans="1:10" ht="42">
       <c r="A35" s="5">
         <v>681</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G35" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="75">
+    <row r="36" spans="1:10" ht="98">
       <c r="A36" s="5">
         <v>839</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="100">
+    <row r="37" spans="1:10" ht="126">
       <c r="A37" s="5">
         <v>904</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G37" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="50">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="56">
       <c r="A38" s="5">
         <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G38" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="50">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="56">
       <c r="A39" s="5">
         <v>147</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G39" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="37.5">
+    <row r="40" spans="1:10" ht="42">
       <c r="A40" s="5">
         <v>648</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G40" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="37.5">
+    <row r="41" spans="1:10" ht="42">
       <c r="A41" s="5">
         <v>142</v>
       </c>
@@ -3247,109 +3203,109 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G41" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="50">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="56">
       <c r="A42" s="5">
         <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G42" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="75">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="84">
       <c r="A43" s="5">
         <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G43" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="62.5">
+    <row r="44" spans="1:10" ht="70">
       <c r="A44" s="5">
         <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G44" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="37.5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="42">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3366,16 +3322,16 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G45" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="50">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="56">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3392,48 +3348,48 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G46" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="50">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="56">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G47" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="50">
+    <row r="48" spans="1:10" ht="70">
       <c r="A48" s="1">
         <v>56</v>
       </c>
@@ -3450,16 +3406,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G48" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="62.5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="70">
       <c r="A49" s="1">
         <v>256</v>
       </c>
@@ -3476,427 +3432,427 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="50">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="56">
       <c r="A50" s="1">
         <v>262</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G50" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="37.5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="42">
       <c r="A51" s="1">
         <v>269</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G51" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="37.5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="42">
       <c r="A52" s="1">
         <v>276</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G52" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="62.5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="70">
       <c r="A53" s="1">
         <v>283</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="112.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="126">
       <c r="A54" s="1">
         <v>479</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F54" t="s">
+        <v>493</v>
+      </c>
+      <c r="G54" t="s">
         <v>503</v>
       </c>
-      <c r="G54" t="s">
-        <v>513</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="62.5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="70">
       <c r="A55" s="1">
         <v>481</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F55" t="s">
+        <v>493</v>
+      </c>
+      <c r="G55" t="s">
         <v>503</v>
       </c>
-      <c r="G55" t="s">
-        <v>513</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="62.5">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="70">
       <c r="A56" s="1">
         <v>483</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F56" t="s">
+        <v>493</v>
+      </c>
+      <c r="G56" t="s">
         <v>503</v>
       </c>
-      <c r="G56" t="s">
-        <v>513</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="75">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="84">
       <c r="A57" s="1">
         <v>484</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F57" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" t="s">
         <v>503</v>
       </c>
-      <c r="G57" t="s">
-        <v>513</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="187.5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="224">
       <c r="A58" s="1">
         <v>486</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
         <v>503</v>
       </c>
-      <c r="G58" t="s">
-        <v>513</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="62.5">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="70">
       <c r="A59" s="1">
         <v>489</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G59" t="s">
         <v>503</v>
       </c>
-      <c r="G59" t="s">
-        <v>513</v>
-      </c>
       <c r="J59" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="50">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="56">
       <c r="A60" s="1">
         <v>887</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G60" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="50">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="56">
       <c r="A61" s="1">
         <v>890</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G61" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="62.5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="70">
       <c r="A62" s="1">
         <v>892</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" t="s">
         <v>503</v>
       </c>
-      <c r="G62" t="s">
-        <v>513</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="37.5">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="42">
       <c r="A63" s="1">
         <v>896</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G63" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="62.5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="70">
       <c r="A64" s="1">
         <v>901</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G64" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="37.5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="42">
       <c r="A65" s="1">
         <v>113</v>
       </c>
@@ -3913,19 +3869,19 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G65" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="137.5">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="154">
       <c r="A66" s="5">
         <v>134</v>
       </c>
@@ -3942,16 +3898,16 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="112.5">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="126">
       <c r="A67" s="5">
         <v>150</v>
       </c>
@@ -3968,19 +3924,19 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G67" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="50">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="56">
       <c r="A68" s="5">
         <v>156</v>
       </c>
@@ -3997,19 +3953,19 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G68" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="100">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="112">
       <c r="A69" s="5">
         <v>178</v>
       </c>
@@ -4026,19 +3982,19 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G69" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="112.5">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="126">
       <c r="A70" s="5">
         <v>179</v>
       </c>
@@ -4055,16 +4011,16 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G70" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28">
       <c r="A71" s="5">
         <v>202</v>
       </c>
@@ -4081,16 +4037,16 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G71" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="37.5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="56">
       <c r="A72" s="5">
         <v>203</v>
       </c>
@@ -4107,16 +4063,16 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G72" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="162.5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="196">
       <c r="A73" s="1">
         <v>245</v>
       </c>
@@ -4133,16 +4089,16 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G73" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="87.5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="98">
       <c r="A74" s="1">
         <v>342</v>
       </c>
@@ -4159,22 +4115,22 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G74" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="50">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="56">
       <c r="A75" s="1">
         <v>343</v>
       </c>
@@ -4191,62 +4147,62 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G75" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="50">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="56">
       <c r="A76" s="1">
         <v>336</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G76" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="50">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="56">
       <c r="A77" s="1">
         <v>341</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>142</v>
@@ -4255,22 +4211,22 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G77" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="75">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="84">
       <c r="A78" s="1">
         <v>347</v>
       </c>
@@ -4287,22 +4243,22 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G78" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="62.5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="70">
       <c r="A79" s="1">
         <v>348</v>
       </c>
@@ -4319,19 +4275,19 @@
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G79" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="50">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="56">
       <c r="A80" s="1">
         <v>349</v>
       </c>
@@ -4348,19 +4304,19 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G80" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="37.5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="42">
       <c r="A81" s="1">
         <v>351</v>
       </c>
@@ -4377,74 +4333,74 @@
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G81" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="50">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="70">
       <c r="A82" s="1">
         <v>870</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G82" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="87.5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="112">
       <c r="A83" s="1">
         <v>885</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G83" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="62.5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="70">
       <c r="A84" s="5">
         <v>220</v>
       </c>
@@ -4461,13 +4417,13 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="75">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="84">
       <c r="A85" s="5">
         <v>230</v>
       </c>
@@ -4484,13 +4440,13 @@
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="75">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="84">
       <c r="A86" s="1">
         <v>232</v>
       </c>
@@ -4507,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="87.5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="98">
       <c r="A87" s="1">
         <v>244</v>
       </c>
@@ -4524,19 +4480,19 @@
         <v>102</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="37.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="42">
       <c r="A88" s="1">
         <v>634</v>
       </c>
@@ -4553,13 +4509,13 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="37.5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="56">
       <c r="A89" s="1">
         <v>640</v>
       </c>
@@ -4576,170 +4532,170 @@
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="50">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="56">
       <c r="A90" s="5">
         <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G90" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="62.5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="70">
       <c r="A91" s="5">
         <v>143</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G91" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="75">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="84">
       <c r="A92" s="5">
         <v>786</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G92" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="50">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="56">
       <c r="A93" s="5">
         <v>714</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G93" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="100">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="112">
       <c r="A94" s="5">
         <v>862</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G94" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="37.5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="56">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -4756,19 +4712,19 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G95" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="37.5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="42">
       <c r="A96" s="1">
         <v>48</v>
       </c>
@@ -4785,19 +4741,19 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G96" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="62.5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="70">
       <c r="A97" s="1">
         <v>49</v>
       </c>
@@ -4814,303 +4770,303 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G97" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="37.5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="56">
       <c r="A98" s="1">
         <v>209</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G98" t="s">
+        <v>515</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="37.5">
+    </row>
+    <row r="99" spans="1:10" ht="42">
       <c r="A99" s="1">
         <v>279</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G99" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="50">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="56">
       <c r="A100" s="1">
         <v>280</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G100" t="s">
+        <v>514</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="50">
+    </row>
+    <row r="101" spans="1:10" ht="70">
       <c r="A101" s="1">
         <v>494</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="62.5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="70">
       <c r="A102" s="1">
         <v>500</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="62.5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="70">
       <c r="A103" s="1">
         <v>895</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="50">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="56">
       <c r="A104" s="1">
         <v>899</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G104" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="50">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="56">
       <c r="A105" s="1">
         <v>900</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G105" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="37.5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="42">
       <c r="A106" s="1">
         <v>906</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G106" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="62.5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="70">
       <c r="A107" s="1">
         <v>907</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G107" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="62.5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="70">
       <c r="A108" s="1">
         <v>243</v>
       </c>
@@ -5127,19 +5083,19 @@
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G108" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="50">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="56">
       <c r="A109" s="1">
         <v>329</v>
       </c>
@@ -5156,19 +5112,19 @@
         <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G109" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="37.5">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="42">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -5185,19 +5141,19 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G110" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="75">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="84">
       <c r="A111" s="5">
         <v>3</v>
       </c>
@@ -5214,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G111" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="28">
       <c r="A112" s="5">
         <v>5</v>
       </c>
@@ -5243,19 +5199,19 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G112" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="37.5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="42">
       <c r="A113" s="5">
         <v>7</v>
       </c>
@@ -5272,19 +5228,19 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G113" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="50">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="56">
       <c r="A114" s="5">
         <v>6</v>
       </c>
@@ -5301,19 +5257,19 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G114" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="62.5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="70">
       <c r="A115" s="5">
         <v>8</v>
       </c>
@@ -5330,19 +5286,19 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G115" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="50">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="56">
       <c r="A116" s="5">
         <v>9</v>
       </c>
@@ -5359,19 +5315,19 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G116" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="37.5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="56">
       <c r="A117" s="5">
         <v>13</v>
       </c>
@@ -5388,27 +5344,27 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G117" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="50">
+    <row r="118" spans="1:10" ht="56">
       <c r="A118" s="5">
         <v>17</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>196</v>
@@ -5420,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G118" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="75">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="84">
       <c r="A119" s="5">
         <v>28</v>
       </c>
@@ -5449,56 +5405,56 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G119" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="37.5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="42">
       <c r="A120" s="5">
         <v>14</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G120" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="50">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="56">
       <c r="A121" s="5">
         <v>25</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>23</v>
@@ -5507,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G121" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="75">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="98">
       <c r="A122" s="5">
         <v>12</v>
       </c>
@@ -5536,19 +5492,19 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G122" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="62.5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="70">
       <c r="A123" s="5">
         <v>15</v>
       </c>
@@ -5565,19 +5521,19 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G123" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="50">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="56">
       <c r="A124" s="5">
         <v>21</v>
       </c>
@@ -5585,109 +5541,109 @@
         <v>198</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G124" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="50">
+    <row r="125" spans="1:10" ht="56">
       <c r="A125" s="5">
         <v>101</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="50">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="56">
       <c r="A126" s="5">
         <v>641</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="50">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="56">
       <c r="A127" s="5">
         <v>835</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G127" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="37.5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="42">
       <c r="A128" s="1">
         <v>182</v>
       </c>
@@ -5704,16 +5660,16 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="50">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="56">
       <c r="A129" s="1">
         <v>184</v>
       </c>
@@ -5730,16 +5686,16 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="50">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="56">
       <c r="A130" s="1">
         <v>185</v>
       </c>
@@ -5756,13 +5712,13 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="37.5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="42">
       <c r="A131" s="1">
         <v>186</v>
       </c>
@@ -5779,42 +5735,42 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="87.5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="98">
       <c r="A132" s="1">
         <v>246</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="37.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="56">
       <c r="A133" s="5">
         <v>126</v>
       </c>
@@ -5834,10 +5790,10 @@
         <v>7</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="125">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="154">
       <c r="A134" s="1">
         <v>241</v>
       </c>
@@ -5857,47 +5813,47 @@
         <v>7</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="62.5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="70">
       <c r="A135" s="1">
         <v>338</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="50">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="56">
       <c r="A136" s="1">
         <v>662</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>2</v>
@@ -5906,21 +5862,21 @@
         <v>7</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="37.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="42">
       <c r="A137" s="1">
         <v>889</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>2</v>
@@ -5929,27 +5885,27 @@
         <v>7</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="37.5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="42">
       <c r="A138" s="1">
         <v>912</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>2</v>
@@ -5958,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5978,195 +5934,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="6">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <f t="shared" ref="H2:H5" si="0">SUM(B2:G2)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1">
-      <c r="A4" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="6">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1">
-      <c r="A5" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="6">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <f>D6-D4</f>
-        <v>15</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B6" s="6">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6">
-        <v>48</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
-        <f>SUM(B6:G6)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <f>SUM(B7:G7)</f>
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45481EA-53B3-49A1-B851-D76556CE09E5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>